--- a/Experiments/Measurements/Single Banner Horizontal/S path/Antenna_1/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Horizontal/S path/Antenna_1/Transformed_Coordinates.xlsx
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>165.0711950893395</v>
+        <v>165.0711950893394</v>
       </c>
       <c r="H12" t="n">
-        <v>53.27958633883852</v>
+        <v>53.27958633883844</v>
       </c>
     </row>
     <row r="13">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>164.9951518372318</v>
+        <v>164.9951518372317</v>
       </c>
       <c r="H13" t="n">
-        <v>75.81856482141744</v>
+        <v>75.81856482141738</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>113.5314250485521</v>
+        <v>113.5314250485517</v>
       </c>
       <c r="H14" t="n">
-        <v>93.13584630305542</v>
+        <v>93.13584630305523</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>41.25825870039445</v>
+        <v>41.25825870039407</v>
       </c>
       <c r="H15" t="n">
-        <v>75.59381366583855</v>
+        <v>75.59381366583833</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>108.26627953066</v>
+        <v>108.2662795306595</v>
       </c>
       <c r="H16" t="n">
-        <v>67.16455890231138</v>
+        <v>67.16455890231121</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>67.7562608103301</v>
+        <v>67.75626081032969</v>
       </c>
       <c r="H17" t="n">
-        <v>67.28579774409168</v>
+        <v>67.28579774409147</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>214.3264022068395</v>
+        <v>214.3264022068396</v>
       </c>
       <c r="H18" t="n">
-        <v>61.52029689134613</v>
+        <v>61.52029689134629</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>210.4608065882999</v>
+        <v>210.4608065883</v>
       </c>
       <c r="H19" t="n">
-        <v>82.77258605712967</v>
+        <v>82.7725860571298</v>
       </c>
     </row>
     <row r="20">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>193.7474419574617</v>
+        <v>193.7474419574621</v>
       </c>
       <c r="H24" t="n">
-        <v>66.35450712963308</v>
+        <v>66.35450712963336</v>
       </c>
     </row>
     <row r="25">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>156.3104372467762</v>
+        <v>156.310437246776</v>
       </c>
       <c r="H29" t="n">
-        <v>53.67691529022247</v>
+        <v>53.67691529022233</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>83.48252790308653</v>
+        <v>83.48252790308631</v>
       </c>
       <c r="H30" t="n">
-        <v>69.13764517982952</v>
+        <v>69.13764517982943</v>
       </c>
     </row>
     <row r="31">
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>63.75893380637684</v>
+        <v>63.75893380637652</v>
       </c>
       <c r="H32" t="n">
-        <v>73.08470636569953</v>
+        <v>73.08470636569942</v>
       </c>
     </row>
     <row r="33">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>174.8800524673632</v>
+        <v>174.880052467363</v>
       </c>
       <c r="H34" t="n">
-        <v>55.46981668753407</v>
+        <v>55.46981668753383</v>
       </c>
     </row>
     <row r="35">
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>161.5557496956814</v>
+        <v>161.5557496956812</v>
       </c>
       <c r="H35" t="n">
-        <v>61.37321962274657</v>
+        <v>61.37321962274645</v>
       </c>
     </row>
     <row r="36">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>151.6235218497181</v>
+        <v>151.6235218497179</v>
       </c>
       <c r="H36" t="n">
-        <v>82.06355133388128</v>
+        <v>82.06355133388116</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>156.4642683180058</v>
+        <v>156.4642683180056</v>
       </c>
       <c r="H37" t="n">
-        <v>48.16596022995036</v>
+        <v>48.1659602299502</v>
       </c>
     </row>
     <row r="38">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>195.8345424959552</v>
+        <v>195.8345424959555</v>
       </c>
       <c r="H38" t="n">
-        <v>60.2129916650839</v>
+        <v>60.21299166508422</v>
       </c>
     </row>
     <row r="39">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>59.64581706971757</v>
+        <v>59.64581706971775</v>
       </c>
       <c r="H40" t="n">
-        <v>70.73588911333076</v>
+        <v>70.7358891133309</v>
       </c>
     </row>
     <row r="41">
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>43.6124438938163</v>
+        <v>43.61244389381666</v>
       </c>
       <c r="H45" t="n">
-        <v>77.51179773565157</v>
+        <v>77.51179773565181</v>
       </c>
     </row>
     <row r="46">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>49.37062147178877</v>
+        <v>49.37062147178895</v>
       </c>
       <c r="H46" t="n">
-        <v>77.5916328359138</v>
+        <v>77.59163283591391</v>
       </c>
     </row>
     <row r="47">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>63.90220514916341</v>
+        <v>63.9022051491638</v>
       </c>
       <c r="H47" t="n">
-        <v>69.47853624700542</v>
+        <v>69.47853624700564</v>
       </c>
     </row>
     <row r="48">
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>51.62457457945104</v>
+        <v>51.62457457945088</v>
       </c>
       <c r="H48" t="n">
-        <v>77.15217919135914</v>
+        <v>77.15217919135901</v>
       </c>
     </row>
     <row r="49">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>84.31774416590341</v>
+        <v>84.31774416590324</v>
       </c>
       <c r="H50" t="n">
-        <v>69.73955803672629</v>
+        <v>69.73955803672615</v>
       </c>
     </row>
     <row r="51">
